--- a/translations.xlsx
+++ b/translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="412">
   <si>
     <t>HONEY MENU</t>
   </si>
@@ -682,9 +682,6 @@
   </si>
   <si>
     <t>Сорти винограду: Сіра, Гренаш, Мурведр. В оксамитовому ароматі вина присутні нотки червоної і чорної смородини, черешні, ожини, доповнені цікавими мотивами прянощів і спецій. Смак насичений, з мякими танінами та стійким післясмаком.</t>
-  </si>
-  <si>
-    <t>M MAIN MENU</t>
   </si>
   <si>
     <t>MAIN MENU</t>
@@ -1590,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1621,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1629,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1637,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1645,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1653,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1661,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1669,7 +1666,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1677,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1685,7 +1682,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1693,7 +1690,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1701,7 +1698,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1709,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1717,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1725,7 +1722,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1733,7 +1730,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1741,7 +1738,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1749,7 +1746,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1757,7 +1754,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1765,7 +1762,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1773,7 +1770,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1781,7 +1778,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1789,7 +1786,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1797,7 +1794,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1805,7 +1802,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1813,7 +1810,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1821,7 +1818,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1829,7 +1826,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1837,7 +1834,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1845,7 +1842,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1853,7 +1850,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1861,7 +1858,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1869,7 +1866,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1877,7 +1874,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1885,7 +1882,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1893,7 +1890,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1901,7 +1898,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1917,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1925,7 +1922,7 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1933,7 +1930,7 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1941,7 +1938,7 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1949,7 +1946,7 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1957,7 +1954,7 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1965,7 +1962,7 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1973,7 +1970,7 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1981,7 +1978,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1989,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1997,7 +1994,7 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2005,7 +2002,7 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2013,7 +2010,7 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2021,7 +2018,7 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2029,7 +2026,7 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2037,7 +2034,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2045,7 +2042,7 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2053,7 +2050,7 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2061,7 +2058,7 @@
         <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2069,7 +2066,7 @@
         <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2077,7 +2074,7 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2085,7 +2082,7 @@
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2093,7 +2090,7 @@
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2101,7 +2098,7 @@
         <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2109,7 +2106,7 @@
         <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2117,7 +2114,7 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2125,7 +2122,7 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2133,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2141,7 +2138,7 @@
         <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2149,7 +2146,7 @@
         <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2157,7 +2154,7 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2165,7 +2162,7 @@
         <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2173,7 +2170,7 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2181,7 +2178,7 @@
         <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2189,7 +2186,7 @@
         <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2197,7 +2194,7 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2205,7 +2202,7 @@
         <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2213,7 +2210,7 @@
         <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2221,7 +2218,7 @@
         <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2229,7 +2226,7 @@
         <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2237,7 +2234,7 @@
         <v>73</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2245,7 +2242,7 @@
         <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2253,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2261,7 +2258,7 @@
         <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2269,7 +2266,7 @@
         <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2277,7 +2274,7 @@
         <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2285,7 +2282,7 @@
         <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2293,7 +2290,7 @@
         <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2301,7 +2298,7 @@
         <v>80</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2309,7 +2306,7 @@
         <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2317,7 +2314,7 @@
         <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2325,7 +2322,7 @@
         <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2333,7 +2330,7 @@
         <v>84</v>
       </c>
       <c r="C92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2341,7 +2338,7 @@
         <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2349,7 +2346,7 @@
         <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2357,7 +2354,7 @@
         <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2365,7 +2362,7 @@
         <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2373,7 +2370,7 @@
         <v>89</v>
       </c>
       <c r="C97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2381,7 +2378,7 @@
         <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2389,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2397,7 +2394,7 @@
         <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2405,7 +2402,7 @@
         <v>92</v>
       </c>
       <c r="C101" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2413,7 +2410,7 @@
         <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2421,7 +2418,7 @@
         <v>94</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2429,7 +2426,7 @@
         <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2437,7 +2434,7 @@
         <v>96</v>
       </c>
       <c r="C105" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2445,7 +2442,7 @@
         <v>97</v>
       </c>
       <c r="C106" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2453,7 +2450,7 @@
         <v>98</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2461,7 +2458,7 @@
         <v>99</v>
       </c>
       <c r="C108" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2469,7 +2466,7 @@
         <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2477,7 +2474,7 @@
         <v>101</v>
       </c>
       <c r="C110" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2485,7 +2482,7 @@
         <v>102</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2493,7 +2490,7 @@
         <v>103</v>
       </c>
       <c r="C112" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2501,7 +2498,7 @@
         <v>104</v>
       </c>
       <c r="C113" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2509,7 +2506,7 @@
         <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2517,7 +2514,7 @@
         <v>106</v>
       </c>
       <c r="C115" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2525,7 +2522,7 @@
         <v>107</v>
       </c>
       <c r="C116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2533,7 +2530,7 @@
         <v>108</v>
       </c>
       <c r="C117" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2541,7 +2538,7 @@
         <v>109</v>
       </c>
       <c r="C118" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2549,7 +2546,7 @@
         <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2557,7 +2554,7 @@
         <v>111</v>
       </c>
       <c r="C120" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2565,7 +2562,7 @@
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2573,7 +2570,7 @@
         <v>112</v>
       </c>
       <c r="C122" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2581,7 +2578,7 @@
         <v>113</v>
       </c>
       <c r="C123" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2589,7 +2586,7 @@
         <v>114</v>
       </c>
       <c r="C124" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2597,7 +2594,7 @@
         <v>115</v>
       </c>
       <c r="C125" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2605,7 +2602,7 @@
         <v>116</v>
       </c>
       <c r="C126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2613,7 +2610,7 @@
         <v>117</v>
       </c>
       <c r="C127" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2621,7 +2618,7 @@
         <v>118</v>
       </c>
       <c r="C128" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2629,7 +2626,7 @@
         <v>119</v>
       </c>
       <c r="C129" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2637,7 +2634,7 @@
         <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2645,7 +2642,7 @@
         <v>121</v>
       </c>
       <c r="C131" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2653,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2661,7 +2658,7 @@
         <v>122</v>
       </c>
       <c r="C133" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2669,7 +2666,7 @@
         <v>123</v>
       </c>
       <c r="C134" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2677,7 +2674,7 @@
         <v>124</v>
       </c>
       <c r="C135" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2685,7 +2682,7 @@
         <v>125</v>
       </c>
       <c r="C136" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2693,7 +2690,7 @@
         <v>126</v>
       </c>
       <c r="C137" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2701,7 +2698,7 @@
         <v>127</v>
       </c>
       <c r="C138" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2709,7 +2706,7 @@
         <v>128</v>
       </c>
       <c r="C139" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2717,7 +2714,7 @@
         <v>129</v>
       </c>
       <c r="C140" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2725,7 +2722,7 @@
         <v>130</v>
       </c>
       <c r="C141" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2733,7 +2730,7 @@
         <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2741,7 +2738,7 @@
         <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2749,7 +2746,7 @@
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2757,7 +2754,7 @@
         <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2765,7 +2762,7 @@
         <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2773,7 +2770,7 @@
         <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2781,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2789,7 +2786,7 @@
         <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2797,7 +2794,7 @@
         <v>18</v>
       </c>
       <c r="C150" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2805,7 +2802,7 @@
         <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2813,7 +2810,7 @@
         <v>20</v>
       </c>
       <c r="C152" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2821,7 +2818,7 @@
         <v>132</v>
       </c>
       <c r="C153" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2829,7 +2826,7 @@
         <v>22</v>
       </c>
       <c r="C154" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2837,7 +2834,7 @@
         <v>133</v>
       </c>
       <c r="C155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2845,7 +2842,7 @@
         <v>24</v>
       </c>
       <c r="C156" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2853,7 +2850,7 @@
         <v>25</v>
       </c>
       <c r="C157" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2861,7 +2858,7 @@
         <v>134</v>
       </c>
       <c r="C158" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2869,7 +2866,7 @@
         <v>27</v>
       </c>
       <c r="C159" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3021,7 +3018,7 @@
         <v>28</v>
       </c>
       <c r="C178" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3029,7 +3026,7 @@
         <v>153</v>
       </c>
       <c r="C179" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3037,7 +3034,7 @@
         <v>154</v>
       </c>
       <c r="C180" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3053,7 +3050,7 @@
         <v>29</v>
       </c>
       <c r="C182" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3061,7 +3058,7 @@
         <v>30</v>
       </c>
       <c r="C183" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3069,7 +3066,7 @@
         <v>31</v>
       </c>
       <c r="C184" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3077,7 +3074,7 @@
         <v>32</v>
       </c>
       <c r="C185" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3085,7 +3082,7 @@
         <v>33</v>
       </c>
       <c r="C186" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3093,7 +3090,7 @@
         <v>156</v>
       </c>
       <c r="C187" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3101,7 +3098,7 @@
         <v>157</v>
       </c>
       <c r="C188" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3109,7 +3106,7 @@
         <v>158</v>
       </c>
       <c r="C189" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3125,7 +3122,7 @@
         <v>160</v>
       </c>
       <c r="C191" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3133,7 +3130,7 @@
         <v>161</v>
       </c>
       <c r="C192" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3149,7 +3146,7 @@
         <v>163</v>
       </c>
       <c r="C194" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3157,7 +3154,7 @@
         <v>164</v>
       </c>
       <c r="C195" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3173,7 +3170,7 @@
         <v>166</v>
       </c>
       <c r="C197" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3181,7 +3178,7 @@
         <v>167</v>
       </c>
       <c r="C198" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3197,7 +3194,7 @@
         <v>169</v>
       </c>
       <c r="C200" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3205,7 +3202,7 @@
         <v>170</v>
       </c>
       <c r="C201" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3221,7 +3218,7 @@
         <v>172</v>
       </c>
       <c r="C203" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3237,7 +3234,7 @@
         <v>174</v>
       </c>
       <c r="C205" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3245,7 +3242,7 @@
         <v>175</v>
       </c>
       <c r="C206" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3261,7 +3258,7 @@
         <v>177</v>
       </c>
       <c r="C208" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3269,7 +3266,7 @@
         <v>34</v>
       </c>
       <c r="C209" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3277,7 +3274,7 @@
         <v>156</v>
       </c>
       <c r="C210" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3293,7 +3290,7 @@
         <v>179</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3301,7 +3298,7 @@
         <v>180</v>
       </c>
       <c r="C213" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3309,7 +3306,7 @@
         <v>181</v>
       </c>
       <c r="C214" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3317,7 +3314,7 @@
         <v>161</v>
       </c>
       <c r="C215" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3333,7 +3330,7 @@
         <v>183</v>
       </c>
       <c r="C217" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3341,7 +3338,7 @@
         <v>167</v>
       </c>
       <c r="C218" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3357,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="C220" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3373,7 +3370,7 @@
         <v>187</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3381,7 +3378,7 @@
         <v>188</v>
       </c>
       <c r="C223" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3389,7 +3386,7 @@
         <v>189</v>
       </c>
       <c r="C224" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3397,7 +3394,7 @@
         <v>170</v>
       </c>
       <c r="C225" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3413,7 +3410,7 @@
         <v>191</v>
       </c>
       <c r="C227" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3421,7 +3418,7 @@
         <v>164</v>
       </c>
       <c r="C228" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3437,7 +3434,7 @@
         <v>193</v>
       </c>
       <c r="C230" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3445,7 +3442,7 @@
         <v>194</v>
       </c>
       <c r="C231" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3453,7 +3450,7 @@
         <v>195</v>
       </c>
       <c r="C232" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3461,7 +3458,7 @@
         <v>196</v>
       </c>
       <c r="C233" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3469,7 +3466,7 @@
         <v>35</v>
       </c>
       <c r="C234" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3477,7 +3474,7 @@
         <v>175</v>
       </c>
       <c r="C235" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3493,7 +3490,7 @@
         <v>198</v>
       </c>
       <c r="C237" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3501,7 +3498,7 @@
         <v>170</v>
       </c>
       <c r="C238" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3517,7 +3514,7 @@
         <v>200</v>
       </c>
       <c r="C240" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3525,7 +3522,7 @@
         <v>36</v>
       </c>
       <c r="C241" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3533,7 +3530,7 @@
         <v>33</v>
       </c>
       <c r="C242" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3541,7 +3538,7 @@
         <v>201</v>
       </c>
       <c r="C243" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3549,7 +3546,7 @@
         <v>202</v>
       </c>
       <c r="C244" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3557,7 +3554,7 @@
         <v>203</v>
       </c>
       <c r="C245" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3565,7 +3562,7 @@
         <v>204</v>
       </c>
       <c r="C246" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3573,7 +3570,7 @@
         <v>205</v>
       </c>
       <c r="C247" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3581,7 +3578,7 @@
         <v>203</v>
       </c>
       <c r="C248" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3589,7 +3586,7 @@
         <v>34</v>
       </c>
       <c r="C249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3597,7 +3594,7 @@
         <v>206</v>
       </c>
       <c r="C250" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3605,7 +3602,7 @@
         <v>207</v>
       </c>
       <c r="C251" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3613,7 +3610,7 @@
         <v>203</v>
       </c>
       <c r="C252" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3621,7 +3618,7 @@
         <v>208</v>
       </c>
       <c r="C253" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3629,7 +3626,7 @@
         <v>209</v>
       </c>
       <c r="C254" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3637,7 +3634,7 @@
         <v>203</v>
       </c>
       <c r="C255" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3645,7 +3642,7 @@
         <v>210</v>
       </c>
       <c r="C256" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3653,7 +3650,7 @@
         <v>211</v>
       </c>
       <c r="C257" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3661,7 +3658,7 @@
         <v>203</v>
       </c>
       <c r="C258" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3669,7 +3666,7 @@
         <v>212</v>
       </c>
       <c r="C259" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3677,7 +3674,7 @@
         <v>213</v>
       </c>
       <c r="C260" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3685,7 +3682,7 @@
         <v>203</v>
       </c>
       <c r="C261" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3693,7 +3690,7 @@
         <v>214</v>
       </c>
       <c r="C262" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3701,7 +3698,7 @@
         <v>215</v>
       </c>
       <c r="C263" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3709,7 +3706,7 @@
         <v>203</v>
       </c>
       <c r="C264" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3717,7 +3714,7 @@
         <v>216</v>
       </c>
       <c r="C265" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3725,7 +3722,7 @@
         <v>217</v>
       </c>
       <c r="C266" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3733,7 +3730,7 @@
         <v>203</v>
       </c>
       <c r="C267" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3741,7 +3738,7 @@
         <v>218</v>
       </c>
       <c r="C268" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3749,7 +3746,7 @@
         <v>219</v>
       </c>
       <c r="C269" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3757,7 +3754,7 @@
         <v>203</v>
       </c>
       <c r="C270" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3765,7 +3762,7 @@
         <v>220</v>
       </c>
       <c r="C271" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3773,7 +3770,7 @@
         <v>221</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3781,7 +3778,7 @@
         <v>203</v>
       </c>
       <c r="C273" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
